--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C40126-0AB2-4259-A474-651C4082E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC7D6F-9D5E-41E3-A863-9C9F664F7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1. Annotation" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,9 +515,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,8 +792,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1135,25 +1132,25 @@
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1411,13 +1408,13 @@
       <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -1438,13 +1435,13 @@
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1464,13 +1461,13 @@
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -1479,7 +1476,7 @@
       <c r="H26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1490,13 +1487,13 @@
       <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -1516,7 +1513,7 @@
       <c r="C28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="1" t="s">

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC7D6F-9D5E-41E3-A863-9C9F664F7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577D187-1AB9-4599-8526-4D0FD513F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -101,13 +101,6 @@
   </si>
   <si>
     <t>State : rebalanceCount, rewardPerGas0Accumulator Local : rewardPerGas0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pushRewardPerGas1</t>
-  </si>
-  <si>
-    <t>State : rebalanceCount, rewardPerGas0Accumulator Local : rewardPerGas1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -792,8 +785,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -886,13 +879,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -901,10 +894,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -913,25 +906,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -940,40 +933,42 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -985,24 +980,22 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1014,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1023,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
@@ -1041,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1050,13 +1043,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -1068,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -1077,13 +1070,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -1095,37 +1088,36 @@
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1133,25 +1125,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1159,13 +1154,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1177,48 +1172,48 @@
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>47</v>
@@ -1233,24 +1228,22 @@
         <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1271,10 +1264,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>32</v>
@@ -1283,13 +1276,13 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1298,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1313,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>51</v>
@@ -1325,10 +1318,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>52</v>
@@ -1352,25 +1345,25 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>55</v>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -1378,26 +1371,26 @@
       <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -1406,52 +1399,51 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
@@ -1459,24 +1451,24 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1485,51 +1477,52 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
+      <c r="F27" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -1538,25 +1531,25 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -1565,52 +1558,51 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -1618,22 +1610,22 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>86</v>
@@ -1644,25 +1636,25 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
@@ -1670,51 +1662,52 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -1723,25 +1716,25 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -1749,28 +1742,6 @@
       <c r="B37" s="1">
         <v>35</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577D187-1AB9-4599-8526-4D0FD513F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C6A82-DEE9-46A4-8070-E316B8B6B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Local : earned0, earned1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>pushRewardPerGas0</t>
   </si>
   <si>
@@ -446,6 +442,10 @@
   <si>
     <t>Global : block.timestamp, State : claimable, locktime, startTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>State : maintenanceBudget0, maintenanceBudget 1Local : earned0, earned1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -785,8 +785,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -836,14 +836,14 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
+      <c r="I3" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -870,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -879,13 +879,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -906,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -933,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -951,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -962,13 +962,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -980,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -989,13 +989,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1007,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1016,13 +1016,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -1043,13 +1043,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -1070,13 +1070,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -1088,10 +1088,10 @@
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
@@ -1099,25 +1099,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>103</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1125,13 +1125,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
@@ -1143,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1154,13 +1154,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -1181,13 +1181,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -1199,10 +1199,10 @@
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
@@ -1210,13 +1210,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -1228,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1237,13 +1237,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1264,13 +1264,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1282,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1291,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1309,7 +1309,7 @@
         <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -1318,13 +1318,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1336,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -1345,25 +1345,25 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -1372,25 +1372,25 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -1399,25 +1399,25 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
@@ -1425,25 +1425,25 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
@@ -1451,25 +1451,25 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
@@ -1477,25 +1477,25 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -1504,25 +1504,25 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -1531,25 +1531,25 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
@@ -1584,25 +1584,25 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -1610,25 +1610,25 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
@@ -1636,25 +1636,25 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" t="s">
         <v>89</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
@@ -1662,25 +1662,25 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -1689,25 +1689,25 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -1716,25 +1716,25 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="E36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="I36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J36" s="1"/>
     </row>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C6A82-DEE9-46A4-8070-E316B8B6B6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B216686-A394-4755-BE6E-26A0F13CB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
   <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B216686-A394-4755-BE6E-26A0F13CB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFB0DA-16D7-408E-936E-BC3DB3FBF52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -785,8 +785,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -893,8 +893,8 @@
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -917,11 +917,11 @@
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
@@ -933,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -951,24 +951,22 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
@@ -980,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -995,7 +993,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1007,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -1022,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1034,49 +1032,50 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
@@ -1088,7 +1087,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>26</v>
@@ -1099,54 +1098,55 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1154,25 +1154,25 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -1187,7 +1187,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -1199,11 +1199,9 @@
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1216,19 +1214,19 @@
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1243,19 +1241,19 @@
         <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1270,7 +1268,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1279,10 +1277,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -1291,25 +1289,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>50</v>
+      <c r="G20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -1317,26 +1315,26 @@
       <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -1344,41 +1342,40 @@
       <c r="B22" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -1387,37 +1384,36 @@
         <v>56</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
@@ -1431,9 +1427,9 @@
         <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1442,48 +1438,50 @@
       <c r="H25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="I25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>55</v>
@@ -1492,10 +1490,10 @@
         <v>56</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -1504,13 +1502,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>55</v>
@@ -1519,12 +1517,11 @@
         <v>56</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="1"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1536,8 +1533,8 @@
       <c r="D29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>80</v>
+      <c r="E29" t="s">
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>55</v>
@@ -1546,12 +1543,11 @@
         <v>56</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="1"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1564,7 +1560,7 @@
         <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>55</v>
@@ -1576,7 +1572,7 @@
         <v>56</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
@@ -1584,25 +1580,25 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
@@ -1610,39 +1606,40 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>56</v>
@@ -1654,21 +1651,22 @@
         <v>55</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>56</v>
@@ -1677,10 +1675,10 @@
         <v>56</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -1688,55 +1686,11 @@
       <c r="B35" s="1">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>34</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="1">

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFB0DA-16D7-408E-936E-BC3DB3FBF52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC5A8D-A79B-4868-97A7-83BDA53019D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>_mint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">애매함, 그리고 약간 오탐날수도 있음 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,10 +157,6 @@
   </si>
   <si>
     <t>transferFrom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">State : _balances </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -785,8 +777,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -843,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -933,13 +925,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -951,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -960,40 +952,39 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="1"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1005,22 +996,24 @@
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1032,36 +1025,37 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1069,54 +1063,52 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -1125,54 +1117,52 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -1181,25 +1171,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -1208,25 +1198,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>48</v>
+      <c r="G17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -1234,26 +1224,26 @@
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -1261,266 +1251,263 @@
       <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
+      <c r="C19" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="1"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="1"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="1"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
@@ -1528,159 +1515,96 @@
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="1">

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC5A8D-A79B-4868-97A7-83BDA53019D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C4C7F-AC05-4D90-86BF-926EFAA6CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20232" yWindow="2472" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1. Annotation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -438,6 +438,26 @@
   <si>
     <t>State : maintenanceBudget0, maintenanceBudget 1Local : earned0, earned1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>require문, 사칙연산, 함수 호출 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapping+구조체 분석, for문 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡한 구조의 사칙연산 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inlineArray Expression 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이중 mapping 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -778,7 +798,7 @@
   <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -837,7 +857,9 @@
       <c r="I3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -864,7 +886,9 @@
       <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -891,7 +915,9 @@
       <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -918,7 +944,9 @@
       <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -945,7 +973,9 @@
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1">

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5C4C7F-AC05-4D90-86BF-926EFAA6CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2EE0F9-93D4-4FF8-8596-5D84EA01DCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20232" yWindow="2472" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1. Annotation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사칙연산이나 uint에 대한 분기 없고 address에 대한 분기만 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>_burn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,10 +132,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">애매함, 그리고 약간 오탐날수도 있음 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CitrusToken_c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,10 +140,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>transfer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>State : balances</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,26 +164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Corevoting_c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoreVoting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>quorums</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>State _quorums (mapping)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>애매함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dai_c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -204,22 +172,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local : x, y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Local : wad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>State : balancesOf, allowance</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -263,33 +215,6 @@
     <t>calculateUpdateInPercentage</t>
   </si>
   <si>
-    <t>Define_c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateLiquidityWallet</t>
-  </si>
-  <si>
-    <t>State : reinvestPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dSTND_c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERC20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>_approve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Edentoken_c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,21 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>burn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>State : balanceOf, totalSupply Local : amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>_transferTokens</t>
-  </si>
-  <si>
-    <t>State : balanceOf, totalSupply Local : value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>transferFrom</t>
   </si>
   <si>
@@ -357,16 +267,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>addRewardMultiplier</t>
-  </si>
-  <si>
-    <t>State : userInfo 관련, userList, Local : 각종 파라미터들</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getUserInfoByIndex</t>
-  </si>
-  <si>
     <t>Greenhouse_c.sol</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -375,13 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bonusRewardPoolCountdown</t>
-  </si>
-  <si>
-    <t>Global : block.timestamp, State : _bonusPoolLastDistributedAt, _bonusPoolTimer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Lock_c.sol</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -421,29 +314,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Claim_c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Claim</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCurrentClaimAmount</t>
-  </si>
-  <si>
-    <t>Global : block.timestamp, State : claimable, locktime, startTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>State : maintenanceBudget0, maintenanceBudget 1Local : earned0, earned1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>require문, 사칙연산, 함수 호출 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mapping+구조체 분석, for문 분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -457,6 +331,72 @@
   </si>
   <si>
     <t>이중 mapping 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적배열, modifier 분석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 호출, 복잡한 형태의 조건식 및 변수 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifier, 함수 호출 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼항연산자 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수 호출, 복잡한 자료형, type(uint256).max 등 특수값 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적배열, for문 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require문, 사칙연산 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>require문, typecasting, 함수 호출 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적배열, delete문, 복잡한 자료형, 사칙연산, modifier 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜, 복잡한 사칙연산. modifier 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bonusPoolLeaderboardPush</t>
+  </si>
+  <si>
+    <t>if문 exp의 함수 호출, constant 변수에 대한 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조체, mapping 복잡한 값 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 변수, 복잡한 자료형, 분기 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 변수, 복잡한 자료형, 분기, type casting mapping delete 분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bonusPoolLeaderboardKick</t>
+  </si>
+  <si>
+    <t>for, while, while 조건식에 대한 함수 호출</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -797,8 +737,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -855,10 +795,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -887,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -901,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
@@ -913,10 +853,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -924,13 +864,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -942,10 +882,10 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -953,13 +893,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -971,10 +911,10 @@
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -982,25 +922,28 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -1008,13 +951,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
@@ -1028,8 +971,8 @@
       <c r="I9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
+      <c r="J9" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -1037,13 +980,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
@@ -1052,40 +995,42 @@
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1093,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>44</v>
@@ -1104,178 +1049,176 @@
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1284,23 +1227,26 @@
       <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
+      <c r="F19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
@@ -1310,23 +1256,26 @@
       <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
+      <c r="F20" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
@@ -1336,320 +1285,75 @@
       <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>69</v>
+      <c r="J21" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="1"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="1"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="1">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="1"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
-        <v>31</v>
-      </c>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
-        <v>32</v>
-      </c>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
-        <v>33</v>
-      </c>
+      <c r="B35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="1">
-        <v>34</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="1">
-        <v>35</v>
-      </c>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2EE0F9-93D4-4FF8-8596-5D84EA01DCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88171B-196C-4956-8A1F-56354DE2B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -184,14 +184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>burn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>State : balanceOf, totalSupply, allowance Local : wad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DapiServer_c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -359,10 +351,6 @@
   </si>
   <si>
     <t>require문, 사칙연산 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>require문, typecasting, 함수 호출 분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -738,7 +726,7 @@
   <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -795,10 +783,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -827,7 +815,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -856,7 +844,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -885,7 +873,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -914,7 +902,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -943,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -972,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -1001,7 +989,7 @@
         <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1009,57 +997,57 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>38</v>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
@@ -1067,28 +1055,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1096,25 +1084,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>81</v>
@@ -1125,28 +1113,28 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
@@ -1154,28 +1142,20 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
@@ -1183,20 +1163,20 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
@@ -1209,15 +1189,23 @@
       <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
@@ -1225,28 +1213,28 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
@@ -1254,58 +1242,32 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C88171B-196C-4956-8A1F-56354DE2B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E95B47-5CF5-4D8F-A01F-B3CA9EFC3383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -279,33 +279,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>QANX_c.sol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QANX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockableBalanceOf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Global : block.timestamp, State : LockedData, startLock, unlockDuration, lockedTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Global : block.timestamp, State : Lock 관련</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlock</t>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>State : maintenanceBudget0, maintenanceBudget 1Local : earned0, earned1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -370,14 +347,6 @@
   </si>
   <si>
     <t>구조체, mapping 복잡한 값 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌 변수, 복잡한 자료형, 분기 분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌 변수, 복잡한 자료형, 분기, type casting mapping delete 분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -725,8 +694,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -783,10 +752,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -815,7 +784,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -844,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -873,7 +842,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -902,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -931,7 +900,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -960,7 +929,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -989,7 +958,7 @@
         <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
@@ -1018,7 +987,7 @@
         <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
@@ -1047,7 +1016,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
@@ -1076,7 +1045,7 @@
         <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
@@ -1105,7 +1074,7 @@
         <v>54</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
@@ -1134,7 +1103,7 @@
         <v>56</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
@@ -1148,14 +1117,14 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
@@ -1169,14 +1138,14 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
@@ -1202,69 +1171,33 @@
         <v>39</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>

--- a/dataset/Evaluation.xlsx
+++ b/dataset/Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isjeon\PycharmProjects\pythonProject\SolDebug\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E95B47-5CF5-4D8F-A01F-B3CA9EFC3383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75EAE6F-54F1-4C45-A927-27E117946E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1. Annotation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="81">
   <si>
     <t>번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Global : block.timestamp, State : LockedData, startLock, unlockDuration, lockedTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>State : maintenanceBudget0, maintenanceBudget 1Local : earned0, earned1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -339,21 +335,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>_bonusPoolLeaderboardPush</t>
-  </si>
-  <si>
-    <t>if문 exp의 함수 호출, constant 변수에 대한 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구조체, mapping 복잡한 값 분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>for, while, while 조건식에 대한 함수 호출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>_bonusPoolLeaderboardKick</t>
-  </si>
-  <si>
-    <t>for, while, while 조건식에 대한 함수 호출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positions, _bonusPoolLeaderboardLast, _bonusPoolLeaderboardFirst, _bonusPoolLeaderboard,  block.timestamp, _bonusPoolLastDistributedAt, _bonusPoolTimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global : block.timestamp, State : _data.total - _data.unlockedAmounts - _data.pending;, estUnlock, startLock</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -419,6 +417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -692,10 +691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J105"/>
+  <dimension ref="B2:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -752,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
@@ -784,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
@@ -813,7 +812,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -842,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
@@ -871,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
@@ -900,7 +899,7 @@
         <v>31</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
@@ -929,7 +928,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
@@ -958,11 +957,12 @@
         <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
+        <f>SUM(B10,1)</f>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -987,11 +987,12 @@
         <v>41</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
+        <f t="shared" ref="B12:B19" si="0">SUM(B11,1)</f>
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1016,11 +1017,12 @@
         <v>46</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1045,11 +1047,12 @@
         <v>50</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1074,11 +1077,12 @@
         <v>54</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1103,11 +1107,12 @@
         <v>56</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1116,83 +1121,60 @@
       <c r="D16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
-        <v>77</v>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1201,6 +1183,14 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
@@ -1252,14 +1242,6 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
@@ -1997,6 +1979,17 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
